--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -19,13 +19,234 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+  <si>
+    <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>姓名</t>
+  </si>
+  <si>
+    <t>职务</t>
+  </si>
+  <si>
+    <t>学校及专业</t>
+  </si>
+  <si>
+    <t>年龄</t>
+  </si>
+  <si>
+    <t>联系电话</t>
+  </si>
+  <si>
+    <t>电子邮箱</t>
+  </si>
+  <si>
+    <t>刘一锋</t>
+  </si>
+  <si>
+    <t>CEO</t>
+  </si>
+  <si>
+    <t>清华热能</t>
+  </si>
+  <si>
+    <t>lyf@8sunshine.com</t>
+  </si>
+  <si>
+    <t>李颉琳</t>
+  </si>
+  <si>
+    <t>副总</t>
+  </si>
+  <si>
+    <t>清华经管</t>
+  </si>
+  <si>
+    <t>ljl@8sunshine.com</t>
+  </si>
+  <si>
+    <t>肖雨杰</t>
+  </si>
+  <si>
+    <t>财务总监</t>
+  </si>
+  <si>
+    <t>xyj@8sunshine.com</t>
+  </si>
+  <si>
+    <t>孙鹏浩</t>
+  </si>
+  <si>
+    <t>产品总监</t>
+  </si>
+  <si>
+    <t>清华计算机</t>
+  </si>
+  <si>
+    <t>sph@8sunshine.com</t>
+  </si>
+  <si>
+    <t>马乐</t>
+  </si>
+  <si>
+    <t>法律顾问</t>
+  </si>
+  <si>
+    <t>清华法学</t>
+  </si>
+  <si>
+    <t>ml@8sunshine.com</t>
+  </si>
+  <si>
+    <t>张志强</t>
+  </si>
+  <si>
+    <t>设计总监</t>
+  </si>
+  <si>
+    <t>清华美院</t>
+  </si>
+  <si>
+    <t>zzq@8sunshine.com</t>
+  </si>
+  <si>
+    <t>王彬</t>
+  </si>
+  <si>
+    <t>设计经理</t>
+  </si>
+  <si>
+    <t>wangbin@8unshine.com</t>
+  </si>
+  <si>
+    <t>赵禹焜</t>
+  </si>
+  <si>
+    <t>zyk@8sunshine.com</t>
+  </si>
+  <si>
+    <t>邵李耘竹</t>
+  </si>
+  <si>
+    <t>行政总监</t>
+  </si>
+  <si>
+    <t>延大食科</t>
+  </si>
+  <si>
+    <t>slyz@8sunshine.com</t>
+  </si>
+  <si>
+    <t>胡佳微</t>
+  </si>
+  <si>
+    <t>总助</t>
+  </si>
+  <si>
+    <t>北印文管</t>
+  </si>
+  <si>
+    <t>hjw@8sunshine.com</t>
+  </si>
+  <si>
+    <t>杜晨光</t>
+  </si>
+  <si>
+    <t>清华大学  精密仪器系</t>
+  </si>
+  <si>
+    <t>dcg@zihongkj.com</t>
+  </si>
+  <si>
+    <t>戴震宇</t>
+  </si>
+  <si>
+    <t>COO</t>
+  </si>
+  <si>
+    <t>dzy@zihongkj.com</t>
+  </si>
+  <si>
+    <t>田正</t>
+  </si>
+  <si>
+    <t>研发经理</t>
+  </si>
+  <si>
+    <t>tz@zihongkj.com</t>
+  </si>
+  <si>
+    <t>宋婷</t>
+  </si>
+  <si>
+    <t>品牌公关</t>
+  </si>
+  <si>
+    <t>清华大学 人文学院</t>
+  </si>
+  <si>
+    <t>st@zihongkj.com</t>
+  </si>
+  <si>
+    <t>常洋硕</t>
+  </si>
+  <si>
+    <t>新媒体营销</t>
+  </si>
+  <si>
+    <t>桂林电子科技大学 机械电子工程</t>
+  </si>
+  <si>
+    <t>cys@zihongkj.com</t>
+  </si>
+  <si>
+    <t>石玉</t>
+  </si>
+  <si>
+    <t>平面设计</t>
+  </si>
+  <si>
+    <t>安徽大学  绘画专业</t>
+  </si>
+  <si>
+    <t>sy@zihongkj.com</t>
+  </si>
+  <si>
+    <t>杨丽薇</t>
+  </si>
+  <si>
+    <t>行政</t>
+  </si>
+  <si>
+    <t>哈尔滨职业技术学院 营销与策划</t>
+  </si>
+  <si>
+    <t>ylw@zihongkj.com</t>
+  </si>
+  <si>
+    <t>罗鹏起</t>
+  </si>
+  <si>
+    <t>研发</t>
+  </si>
+  <si>
+    <t>燕京理工学院   电子信息工程</t>
+  </si>
+  <si>
+    <t>lpq@zihongkj.com</t>
+  </si>
+  <si>
+    <t>团队</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
+    <t>紫红科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>八度阳光</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -406,17 +627,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H3"/>
+  <dimension ref="A2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:H2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="1:8">
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -425,9 +651,393 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4">
+        <v>30</v>
+      </c>
+      <c r="F4">
+        <v>18500151190</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5">
+        <v>28</v>
+      </c>
+      <c r="F5">
+        <v>13311082296</v>
+      </c>
+      <c r="G5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>15210560452</v>
+      </c>
+      <c r="G6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>13051902659</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8">
+        <v>24</v>
+      </c>
+      <c r="F8">
+        <v>13931818113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9">
+        <v>22</v>
+      </c>
+      <c r="F9">
+        <v>15156016088</v>
+      </c>
+      <c r="G9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E10">
+        <v>24</v>
+      </c>
+      <c r="F10">
+        <v>18686983521</v>
+      </c>
+      <c r="G10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E11">
+        <v>23</v>
+      </c>
+      <c r="F11">
+        <v>15311118392</v>
+      </c>
+      <c r="G11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+      <c r="E13">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>18800101330</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="F14">
+        <v>13021260494</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>13880205442</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16">
+        <v>23</v>
+      </c>
+      <c r="F16">
+        <v>13598031652</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>18800190865</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18">
+        <v>22</v>
+      </c>
+      <c r="F18">
+        <v>18810669121</v>
+      </c>
+      <c r="G18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19">
+        <v>22</v>
+      </c>
+      <c r="F19">
+        <v>18810651123</v>
+      </c>
+      <c r="G19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>22</v>
+      </c>
+      <c r="F20">
+        <v>15101502092</v>
+      </c>
+      <c r="G20" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21">
+        <v>28</v>
+      </c>
+      <c r="F21">
+        <v>15567621177</v>
+      </c>
+      <c r="G21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7">
+      <c r="B22" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" t="s">
+        <v>40</v>
+      </c>
+      <c r="D22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22">
+        <v>22</v>
+      </c>
+      <c r="F22">
+        <v>13141130512</v>
+      </c>
+      <c r="G22" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -247,6 +247,72 @@
   </si>
   <si>
     <t>八度阳光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王瑾</t>
+  </si>
+  <si>
+    <t>顾问</t>
+  </si>
+  <si>
+    <t>北京机械工业学院 自动化</t>
+  </si>
+  <si>
+    <t>Sophie.wangjin@163.com</t>
+  </si>
+  <si>
+    <t>殷婷云</t>
+  </si>
+  <si>
+    <t>执行总监</t>
+  </si>
+  <si>
+    <t>清华大学建筑学院</t>
+  </si>
+  <si>
+    <t>tingyun_yin@163.com</t>
+  </si>
+  <si>
+    <t>杨佳黎</t>
+  </si>
+  <si>
+    <t>设计</t>
+  </si>
+  <si>
+    <t>清华大学美术学院工艺美术系</t>
+  </si>
+  <si>
+    <t>846255372@qq.com</t>
+  </si>
+  <si>
+    <t>杨杰</t>
+  </si>
+  <si>
+    <t>运营</t>
+  </si>
+  <si>
+    <t>北京第二外国语学院</t>
+  </si>
+  <si>
+    <t>574697529@qq.com</t>
+  </si>
+  <si>
+    <t>韩芳</t>
+  </si>
+  <si>
+    <t>负责人</t>
+  </si>
+  <si>
+    <t>建筑学院景观系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>healworld0517@163.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AURA</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -254,7 +320,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -270,6 +336,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -279,7 +351,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -287,14 +359,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -627,417 +718,523 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H22"/>
+  <dimension ref="A2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="30.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="1">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>18500151190</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="1">
         <v>28</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>13311082296</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="1">
         <v>24</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>15210560452</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>20</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>13051902659</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="B8" t="s">
+      <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>24</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>13931818113</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="B9" t="s">
+      <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>22</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>15156016088</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G9" s="1" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" t="s">
+      <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="1">
         <v>24</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>18686983521</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G10" s="1" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="B11" t="s">
+      <c r="B11" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="1">
         <v>23</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="1">
         <v>15311118392</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G11" s="1" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s">
+      <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="1">
         <v>21</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>18800101330</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G13" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="1">
         <v>21</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>13021260494</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="1">
         <v>20</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>13880205442</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="1">
         <v>23</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>13598031652</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="2:7">
-      <c r="B17" t="s">
+    <row r="17" spans="1:7">
+      <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="1">
         <v>20</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>18800190865</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
-      <c r="B18" t="s">
+    <row r="18" spans="1:7">
+      <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="1">
         <v>22</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>18810669121</v>
       </c>
-      <c r="G18" t="s">
+      <c r="G18" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" t="s">
+    <row r="19" spans="1:7">
+      <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="1">
         <v>22</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>18810651123</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
-      <c r="B20" t="s">
+    <row r="20" spans="1:7">
+      <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="1">
         <v>22</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>15101502092</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
-      <c r="B21" t="s">
+    <row r="21" spans="1:7">
+      <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="1">
         <v>28</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>15567621177</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
-      <c r="B22" t="s">
+    <row r="22" spans="1:7">
+      <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="1">
         <v>22</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>13141130512</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="1" t="s">
         <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="16" thickBot="1"/>
+    <row r="25" spans="1:7" ht="16" thickBot="1">
+      <c r="A25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="F25" s="1">
+        <v>13426213406</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="B26" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="1">
+        <v>43</v>
+      </c>
+      <c r="F26" s="1">
+        <v>18618365816</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="B27" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="1">
+        <v>25</v>
+      </c>
+      <c r="F27" s="1">
+        <v>15210560244</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="B28" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E28" s="1">
+        <v>21</v>
+      </c>
+      <c r="F28" s="1">
+        <v>13391815083</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="B29" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="1">
+        <v>22</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17801072808</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="2960" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="20520" yWindow="2380" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -313,6 +313,81 @@
   </si>
   <si>
     <t>AURA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青橙创客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水木清华理事会</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李寅</t>
+  </si>
+  <si>
+    <t>研究员</t>
+  </si>
+  <si>
+    <t>liyin1416@gmail.com</t>
+  </si>
+  <si>
+    <t>周杨</t>
+  </si>
+  <si>
+    <t>美术学院信息艺术设计系</t>
+  </si>
+  <si>
+    <t>zy@qcmaker.com</t>
+  </si>
+  <si>
+    <t>王思越</t>
+  </si>
+  <si>
+    <t>moon@qcmaker.com</t>
+  </si>
+  <si>
+    <t>胡静</t>
+  </si>
+  <si>
+    <t>hjdeyouxiang@163.com</t>
+  </si>
+  <si>
+    <t>刘琳</t>
+  </si>
+  <si>
+    <t>北师大教育技术</t>
+  </si>
+  <si>
+    <t>liulin@qcmaker.com</t>
+  </si>
+  <si>
+    <t>赵松坤</t>
+  </si>
+  <si>
+    <t>zsk@qcmaker.com</t>
+  </si>
+  <si>
+    <t>张印帅</t>
+  </si>
+  <si>
+    <t>美术学院交叉学科</t>
+  </si>
+  <si>
+    <t>Zys@qcmaker.com</t>
+  </si>
+  <si>
+    <t>于峰</t>
+  </si>
+  <si>
+    <t>北大教育技术</t>
+  </si>
+  <si>
+    <t>Yufeng@qcmaker.com</t>
+  </si>
+  <si>
+    <t>美术学院信息艺术设计系</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -381,11 +456,11 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H29"/>
+  <dimension ref="A2:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -737,15 +812,15 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
@@ -1144,7 +1219,7 @@
       <c r="B25" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -1235,6 +1310,174 @@
       </c>
       <c r="G29" s="1" t="s">
         <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E31" s="1">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18612450863</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="B32" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="1">
+        <v>26</v>
+      </c>
+      <c r="F32" s="1">
+        <v>13051000863</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="B33" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E33" s="1">
+        <v>24</v>
+      </c>
+      <c r="F33" s="1">
+        <v>18910285890</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="B34" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E34" s="1">
+        <v>24</v>
+      </c>
+      <c r="F34" s="1">
+        <v>15210589867</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="B35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E35" s="1">
+        <v>36</v>
+      </c>
+      <c r="F35" s="1">
+        <v>13520179733</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="B36" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="1">
+        <v>24</v>
+      </c>
+      <c r="F36" s="1">
+        <v>13141324217</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="B37" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="1">
+        <v>23</v>
+      </c>
+      <c r="F37" s="1">
+        <v>18622050193</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="B38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="1">
+        <v>36</v>
+      </c>
+      <c r="F38" s="1">
+        <v>18611498629</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -389,6 +389,194 @@
   <si>
     <t>美术学院信息艺术设计系</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周梦宇</t>
+  </si>
+  <si>
+    <t>会长</t>
+  </si>
+  <si>
+    <t>zmy90320@gmail.com</t>
+  </si>
+  <si>
+    <t>何钦尧</t>
+  </si>
+  <si>
+    <t>副会长</t>
+  </si>
+  <si>
+    <t>hqythu@gmail.com</t>
+  </si>
+  <si>
+    <t>张艺莹</t>
+  </si>
+  <si>
+    <t>zhangyysem@163.com</t>
+  </si>
+  <si>
+    <t>张阳坤</t>
+  </si>
+  <si>
+    <t>hubert.zyk@gmail.com</t>
+  </si>
+  <si>
+    <t>岳大禹</t>
+  </si>
+  <si>
+    <t>yuedayu13@gmail.com</t>
+  </si>
+  <si>
+    <t>任桐正</t>
+  </si>
+  <si>
+    <t>人力资源部长</t>
+  </si>
+  <si>
+    <t>1289226405@qq.com</t>
+  </si>
+  <si>
+    <t>陶君宇</t>
+  </si>
+  <si>
+    <t>市场宣传部长</t>
+  </si>
+  <si>
+    <t>13021264724@163.com</t>
+  </si>
+  <si>
+    <t>方燠</t>
+  </si>
+  <si>
+    <t>技术开发组长</t>
+  </si>
+  <si>
+    <t>squarefk@qq.com</t>
+  </si>
+  <si>
+    <t>杨松洲</t>
+  </si>
+  <si>
+    <t>yangsongzhou@outlook.com</t>
+  </si>
+  <si>
+    <t>叶曦</t>
+  </si>
+  <si>
+    <t>技术开发</t>
+  </si>
+  <si>
+    <t>yexithu14@163.com</t>
+  </si>
+  <si>
+    <t>庄天翼</t>
+  </si>
+  <si>
+    <t>zty0826@gmail.com</t>
+  </si>
+  <si>
+    <t>清华大学交叉信息研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学计算机科学与技术系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学经济管理学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学交叉信息研究院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学软件学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学化学系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学法学院</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学计算机科学与技术系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>清华大学材料科学与工程系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lab μ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连晓刚</t>
+  </si>
+  <si>
+    <t>执行董事</t>
+  </si>
+  <si>
+    <t>清华建筑</t>
+  </si>
+  <si>
+    <t>lxgang_2005@qq.com</t>
+  </si>
+  <si>
+    <t>孙广标</t>
+  </si>
+  <si>
+    <t>产品研发</t>
+  </si>
+  <si>
+    <t>421919531@qq.com</t>
+  </si>
+  <si>
+    <t>孙成伟</t>
+  </si>
+  <si>
+    <t>清华汽车</t>
+  </si>
+  <si>
+    <t>scw100@sina.com</t>
+  </si>
+  <si>
+    <t>朱璟璐</t>
+  </si>
+  <si>
+    <t>港大建筑</t>
+  </si>
+  <si>
+    <t>jinglu_zhu@163.com</t>
+  </si>
+  <si>
+    <t>孙昊德</t>
+  </si>
+  <si>
+    <t>项目管理</t>
+  </si>
+  <si>
+    <t>sandygaoxin@163.com</t>
+  </si>
+  <si>
+    <t>黄潇</t>
+  </si>
+  <si>
+    <t>技术管理</t>
+  </si>
+  <si>
+    <t>1170126359@qq.com</t>
+  </si>
+  <si>
+    <t>中国地质大学矿产普查与探勘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派希创新教育平台</t>
   </si>
 </sst>
 </file>
@@ -793,15 +981,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H40"/>
+  <dimension ref="A2:H61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
@@ -869,6 +1057,9 @@
       </c>
     </row>
     <row r="5" spans="1:8">
+      <c r="A5" s="1">
+        <v>8</v>
+      </c>
       <c r="B5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1032,6 +1223,9 @@
       </c>
     </row>
     <row r="14" spans="1:8">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
       <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1233,6 +1427,9 @@
       </c>
     </row>
     <row r="26" spans="1:7">
+      <c r="A26" s="1">
+        <v>5</v>
+      </c>
       <c r="B26" s="1" t="s">
         <v>75</v>
       </c>
@@ -1336,6 +1533,9 @@
       </c>
     </row>
     <row r="32" spans="1:7">
+      <c r="A32" s="1">
+        <v>8</v>
+      </c>
       <c r="B32" s="1" t="s">
         <v>101</v>
       </c>
@@ -1478,6 +1678,378 @@
     <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E42" s="1">
+        <v>25</v>
+      </c>
+      <c r="F42" s="1">
+        <v>13810629977</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
+        <v>11</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="1">
+        <v>20</v>
+      </c>
+      <c r="F43" s="1">
+        <v>18800123318</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="B44" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="1">
+        <v>19</v>
+      </c>
+      <c r="F44" s="1">
+        <v>18810913340</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="B45" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="1">
+        <v>21</v>
+      </c>
+      <c r="F45" s="1">
+        <v>18811368501</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="B46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="1">
+        <v>20</v>
+      </c>
+      <c r="F46" s="1">
+        <v>18800160602</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="B47" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="1">
+        <v>18</v>
+      </c>
+      <c r="F47" s="1">
+        <v>18622700029</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="B48" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="1">
+        <v>20</v>
+      </c>
+      <c r="F48" s="1">
+        <v>13021264724</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="B49" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E49" s="1">
+        <v>19</v>
+      </c>
+      <c r="F49" s="1">
+        <v>15189156756</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="B50" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1">
+        <v>19</v>
+      </c>
+      <c r="F50" s="1">
+        <v>15349493060</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="B51" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E51" s="1">
+        <v>19</v>
+      </c>
+      <c r="F51" s="1">
+        <v>13031133004</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="B52" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E52" s="1">
+        <v>19</v>
+      </c>
+      <c r="F52" s="1">
+        <v>13701660995</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E55" s="1">
+        <v>25</v>
+      </c>
+      <c r="F55" s="1">
+        <v>15120003428</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E56" s="1">
+        <v>25</v>
+      </c>
+      <c r="F56" s="1">
+        <v>15201519942</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="B57" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E57" s="1">
+        <v>24</v>
+      </c>
+      <c r="F57" s="1">
+        <v>13146940898</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="B58" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E58" s="1">
+        <v>25</v>
+      </c>
+      <c r="F58" s="1">
+        <v>15210560244</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="B59" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E59" s="1">
+        <v>27</v>
+      </c>
+      <c r="F59" s="1">
+        <v>13605335837</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="B60" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E60" s="1">
+        <v>25</v>
+      </c>
+      <c r="F60" s="1">
+        <v>15101146651</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="B61" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="1">
+        <v>24</v>
+      </c>
+      <c r="F61" s="1">
+        <v>18610969429</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="20520" yWindow="2380" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -577,6 +577,26 @@
   </si>
   <si>
     <t>派希创新教育平台</t>
+  </si>
+  <si>
+    <t>簡勤佑</t>
+  </si>
+  <si>
+    <t>0934-212-030</t>
+  </si>
+  <si>
+    <t>oscar3011674@gmail.com</t>
+  </si>
+  <si>
+    <t>創辦人 首席營運官</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台灣大學 情報訊息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小幸運高校匿名社群</t>
   </si>
 </sst>
 </file>
@@ -981,15 +1001,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H61"/>
+  <dimension ref="A2:H65"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
@@ -2050,6 +2070,34 @@
       </c>
       <c r="G61" s="1" t="s">
         <v>176</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E64" s="1">
+        <v>25</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="1">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20520" yWindow="2380" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="19740" yWindow="4940" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="195">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -597,6 +602,73 @@
   </si>
   <si>
     <t>小幸運高校匿名社群</t>
+  </si>
+  <si>
+    <t>四层</t>
+    <rPh sb="0" eb="1">
+      <t>si ceng</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>校园极客社</t>
+    <rPh sb="0" eb="1">
+      <t>xiao yuan ji ke she</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智能机器人团队</t>
+    <rPh sb="0" eb="1">
+      <t>zhi neng ji qi ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>tuan dui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青橙创客</t>
+    <rPh sb="0" eb="1">
+      <t>qing cheng</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chuang ke</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创客空间协会</t>
+    <rPh sb="0" eb="1">
+      <t>chuang ke kong jain</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>xie hui</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEDxTHU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>派希创新平台</t>
+    <rPh sb="2" eb="3">
+      <t>chuang xin ping tai</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -672,10 +744,15 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1001,13 +1078,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H65"/>
+  <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
@@ -1019,7 +1096,7 @@
     <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1030,7 +1107,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
@@ -1053,7 +1130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>73</v>
       </c>
@@ -1075,8 +1152,11 @@
       <c r="G4" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="J4" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>8</v>
       </c>
@@ -1098,8 +1178,17 @@
       <c r="G5" s="1" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="J5" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="1" t="s">
         <v>49</v>
       </c>
@@ -1118,8 +1207,17 @@
       <c r="G6" s="1" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="J6" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1138,8 +1236,17 @@
       <c r="G7" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="J7" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="1" t="s">
         <v>56</v>
       </c>
@@ -1159,7 +1266,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
@@ -1179,7 +1286,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="1" t="s">
         <v>64</v>
       </c>
@@ -1199,7 +1306,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="1" t="s">
         <v>68</v>
       </c>
@@ -1219,7 +1326,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
         <v>74</v>
       </c>
@@ -1242,7 +1349,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
@@ -1265,7 +1372,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1285,7 +1392,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1305,7 +1412,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B17" s="1" t="s">
         <v>22</v>
       </c>
@@ -1325,7 +1432,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B18" s="1" t="s">
         <v>26</v>
       </c>
@@ -1345,7 +1452,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B19" s="1" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1472,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B20" s="1" t="s">
         <v>33</v>
       </c>
@@ -1385,7 +1492,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B21" s="1" t="s">
         <v>35</v>
       </c>
@@ -1405,7 +1512,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B22" s="1" t="s">
         <v>39</v>
       </c>
@@ -1425,8 +1532,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1"/>
-    <row r="25" spans="1:7" ht="16" thickBot="1">
+    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>95</v>
       </c>
@@ -1446,7 +1553,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>5</v>
       </c>
@@ -1469,7 +1576,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B27" s="1" t="s">
         <v>79</v>
       </c>
@@ -1489,7 +1596,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
         <v>83</v>
       </c>
@@ -1509,7 +1616,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
         <v>87</v>
       </c>
@@ -1529,7 +1636,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A31" s="1" t="s">
         <v>96</v>
       </c>
@@ -1552,7 +1659,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>8</v>
       </c>
@@ -1575,7 +1682,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B33" s="1" t="s">
         <v>104</v>
       </c>
@@ -1595,7 +1702,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B34" s="1" t="s">
         <v>106</v>
       </c>
@@ -1615,7 +1722,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
         <v>108</v>
       </c>
@@ -1635,7 +1742,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B36" s="1" t="s">
         <v>111</v>
       </c>
@@ -1655,7 +1762,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
         <v>113</v>
       </c>
@@ -1675,7 +1782,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
         <v>116</v>
       </c>
@@ -1695,12 +1802,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="40" spans="1:7">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A40" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="1:7">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A42" s="1" t="s">
         <v>157</v>
       </c>
@@ -1723,7 +1830,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>11</v>
       </c>
@@ -1746,7 +1853,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B44" s="1" t="s">
         <v>126</v>
       </c>
@@ -1766,7 +1873,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B45" s="1" t="s">
         <v>128</v>
       </c>
@@ -1786,7 +1893,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="46" spans="1:7">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B46" s="1" t="s">
         <v>130</v>
       </c>
@@ -1806,7 +1913,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
         <v>132</v>
       </c>
@@ -1826,7 +1933,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B48" s="1" t="s">
         <v>135</v>
       </c>
@@ -1846,7 +1953,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
         <v>138</v>
       </c>
@@ -1866,7 +1973,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
         <v>141</v>
       </c>
@@ -1886,7 +1993,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
@@ -1906,7 +2013,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B52" s="1" t="s">
         <v>146</v>
       </c>
@@ -1926,7 +2033,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A55" s="1" t="s">
         <v>178</v>
       </c>
@@ -1949,7 +2056,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="1">
         <v>7</v>
       </c>
@@ -1972,7 +2079,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B57" s="1" t="s">
         <v>165</v>
       </c>
@@ -1992,7 +2099,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B58" s="1" t="s">
         <v>79</v>
       </c>
@@ -2012,7 +2119,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B59" s="1" t="s">
         <v>168</v>
       </c>
@@ -2032,7 +2139,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="60" spans="1:7">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B60" s="1" t="s">
         <v>171</v>
       </c>
@@ -2052,7 +2159,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B61" s="1" t="s">
         <v>174</v>
       </c>
@@ -2072,7 +2179,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="1" t="s">
         <v>184</v>
       </c>
@@ -2095,7 +2202,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
         <v>4</v>
       </c>
@@ -2106,10 +2213,5 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
+++ b/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/入驻人员名册.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26408"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iCenterStudio/Documents/Git Projects/workzone/训练中心创客交叉融合空间建设/admin/新大楼规划建设/创客场地申请/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Woody\Git Projects\workzone\训练中心创客交叉融合空间建设\admin\新大楼规划建设\创客场地申请\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="4940" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="19740" yWindow="4935" windowWidth="25605" windowHeight="19020" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="197">
   <si>
     <t>李兆基科技大楼训练中心创意创新创业平台入驻人员名册</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -255,70 +255,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>王瑾</t>
-  </si>
-  <si>
-    <t>顾问</t>
-  </si>
-  <si>
-    <t>北京机械工业学院 自动化</t>
-  </si>
-  <si>
-    <t>Sophie.wangjin@163.com</t>
-  </si>
-  <si>
     <t>殷婷云</t>
   </si>
   <si>
-    <t>执行总监</t>
-  </si>
-  <si>
-    <t>清华大学建筑学院</t>
-  </si>
-  <si>
     <t>tingyun_yin@163.com</t>
-  </si>
-  <si>
-    <t>杨佳黎</t>
-  </si>
-  <si>
-    <t>设计</t>
-  </si>
-  <si>
-    <t>清华大学美术学院工艺美术系</t>
-  </si>
-  <si>
-    <t>846255372@qq.com</t>
-  </si>
-  <si>
-    <t>杨杰</t>
-  </si>
-  <si>
-    <t>运营</t>
-  </si>
-  <si>
-    <t>北京第二外国语学院</t>
-  </si>
-  <si>
-    <t>574697529@qq.com</t>
-  </si>
-  <si>
-    <t>韩芳</t>
-  </si>
-  <si>
-    <t>负责人</t>
-  </si>
-  <si>
-    <t>建筑学院景观系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>healworld0517@163.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AURA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>青橙创客</t>
@@ -670,12 +610,148 @@
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>智慧混凝土</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘胜杰</t>
+  </si>
+  <si>
+    <t>清华大学土工程系</t>
+  </si>
+  <si>
+    <t>psj13@mails.tsinghua.edu.cn</t>
+  </si>
+  <si>
+    <t>linmj13@qq.com</t>
+  </si>
+  <si>
+    <t>pungmin@outlook.com</t>
+  </si>
+  <si>
+    <t>m15516026377@163.com</t>
+  </si>
+  <si>
+    <t>1366022125@qq.com</t>
+  </si>
+  <si>
+    <t>联络人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张子煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>杨祺康</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>庞敏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林铭杰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>439</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>445</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>637</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>436</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>643</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B643</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>李知庭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lizhiting@tsinghuacapital.cn</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -697,6 +773,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -706,27 +789,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -736,9 +804,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -748,9 +814,80 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -764,7 +901,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="F0FFC8"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -1080,20 +1217,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:L65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B66" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="19.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.875" style="1"/>
     <col min="4" max="4" width="30.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.5" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -1153,7 +1290,7 @@
         <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.15">
@@ -1179,13 +1316,13 @@
         <v>48</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
@@ -1208,16 +1345,19 @@
         <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>187</v>
+        <v>168</v>
       </c>
       <c r="K6" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="1" t="s">
         <v>52</v>
       </c>
@@ -1237,13 +1377,13 @@
         <v>55</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>193</v>
+        <v>174</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
@@ -1393,6 +1533,9 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
+        <v>191</v>
+      </c>
       <c r="B16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1532,679 +1675,698 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="1:7" ht="16" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>95</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E24" s="1">
+        <v>28</v>
+      </c>
+      <c r="F24" s="1">
+        <v>18612450863</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A25" s="1">
+        <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
+      </c>
+      <c r="E25" s="1">
+        <v>26</v>
       </c>
       <c r="F25" s="1">
-        <v>13426213406</v>
+        <v>13051000863</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A26" s="1">
-        <v>5</v>
-      </c>
       <c r="B26" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="E26" s="1">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="F26" s="1">
-        <v>18618365816</v>
+        <v>18910285890</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="B27" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F27" s="1">
-        <v>15210560244</v>
+        <v>15210589867</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B28" s="1" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E28" s="1">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="F28" s="1">
-        <v>13391815083</v>
+        <v>13520179733</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B29" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E29" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F29" s="1">
-        <v>17801072808</v>
+        <v>13141324217</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E30" s="1">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1">
+        <v>18622050193</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A31" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="B31" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="E31" s="1">
+        <v>36</v>
+      </c>
+      <c r="F31" s="1">
+        <v>18611498629</v>
+      </c>
+      <c r="G31" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="E31" s="1">
-        <v>28</v>
-      </c>
-      <c r="F31" s="1">
-        <v>18612450863</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A32" s="1">
-        <v>8</v>
-      </c>
-      <c r="B32" s="1" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E32" s="1">
-        <v>26</v>
-      </c>
-      <c r="F32" s="1">
-        <v>13051000863</v>
-      </c>
-      <c r="G32" s="1" t="s">
+      <c r="D33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E33" s="1">
+        <v>25</v>
+      </c>
+      <c r="F33" s="1">
+        <v>13810629977</v>
+      </c>
+      <c r="G33" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B33" s="1" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A34" s="1">
+        <v>11</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E33" s="1">
-        <v>24</v>
-      </c>
-      <c r="F33" s="1">
-        <v>18910285890</v>
-      </c>
-      <c r="G33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B34" s="1" t="s">
+      <c r="D34" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="1">
+        <v>20</v>
+      </c>
+      <c r="F34" s="1">
+        <v>18800123318</v>
+      </c>
+      <c r="G34" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E34" s="1">
-        <v>24</v>
-      </c>
-      <c r="F34" s="1">
-        <v>15210589867</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B35" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E35" s="1">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1">
+        <v>18810913340</v>
+      </c>
+      <c r="G35" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="E35" s="1">
-        <v>36</v>
-      </c>
-      <c r="F35" s="1">
-        <v>13520179733</v>
-      </c>
-      <c r="G35" s="1" t="s">
+      <c r="C36" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="1">
+        <v>21</v>
+      </c>
+      <c r="F36" s="1">
+        <v>18811368501</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B36" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E36" s="1">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1">
-        <v>13141324217</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B37" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F37" s="1">
-        <v>18622050193</v>
+        <v>18800160602</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B38" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E38" s="1">
+        <v>18</v>
+      </c>
+      <c r="F38" s="1">
+        <v>18622700029</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D38" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="1">
-        <v>36</v>
-      </c>
-      <c r="F38" s="1">
-        <v>18611498629</v>
-      </c>
-      <c r="G38" s="1" t="s">
+      <c r="D39" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E39" s="1">
+        <v>20</v>
+      </c>
+      <c r="F39" s="1">
+        <v>13021264724</v>
+      </c>
+      <c r="G39" s="1" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A40" s="1" t="s">
-        <v>97</v>
+      <c r="B40" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E40" s="1">
+        <v>19</v>
+      </c>
+      <c r="F40" s="1">
+        <v>15189156756</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E41" s="1">
+        <v>19</v>
+      </c>
+      <c r="F41" s="1">
+        <v>15349493060</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A42" s="1" t="s">
-        <v>157</v>
-      </c>
       <c r="B42" s="1" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="E42" s="1">
+        <v>19</v>
+      </c>
+      <c r="F42" s="1">
+        <v>13031133004</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="B43" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1">
+        <v>19</v>
+      </c>
+      <c r="F43" s="1">
+        <v>13701660995</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E45" s="1">
         <v>25</v>
       </c>
-      <c r="F42" s="1">
-        <v>13810629977</v>
-      </c>
-      <c r="G42" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A43" s="1">
-        <v>11</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="E43" s="1">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1">
-        <v>18800123318</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B44" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="E44" s="1">
-        <v>19</v>
-      </c>
-      <c r="F44" s="1">
-        <v>18810913340</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B45" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E45" s="1">
-        <v>21</v>
-      </c>
       <c r="F45" s="1">
-        <v>18811368501</v>
+        <v>15120003428</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A46" s="1">
+        <v>7</v>
+      </c>
       <c r="B46" s="1" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="E46" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F46" s="1">
-        <v>18800160602</v>
+        <v>15201519942</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B47" s="1" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="E47" s="1">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="F47" s="1">
-        <v>18622700029</v>
+        <v>13146940898</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="B48" s="1" t="s">
-        <v>135</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="E48" s="1">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F48" s="1">
-        <v>13021264724</v>
+        <v>15210560244</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>137</v>
+        <v>76</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B49" s="1" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E49" s="1">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F49" s="1">
-        <v>15189156756</v>
+        <v>13605335837</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="E50" s="1">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="F50" s="1">
-        <v>15349493060</v>
+        <v>15101146651</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B51" s="1" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E51" s="1">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="F51" s="1">
-        <v>13031133004</v>
+        <v>18610969429</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B52" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E52" s="1">
-        <v>19</v>
-      </c>
-      <c r="F52" s="1">
-        <v>13701660995</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E53" s="1">
+        <v>25</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D57" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="B55" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E55" s="1">
-        <v>25</v>
-      </c>
-      <c r="F55" s="1">
-        <v>15120003428</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A56" s="1">
-        <v>7</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E56" s="1">
-        <v>25</v>
-      </c>
-      <c r="F56" s="1">
-        <v>15201519942</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="E57" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1">
-        <v>13146940898</v>
+        <v>13051899757</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B58" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>163</v>
+      <c r="A58" s="1">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>188</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E58" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F58" s="1">
-        <v>15210560244</v>
+        <v>13120180221</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>82</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B59" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>163</v>
+      <c r="A59" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="E59" s="1">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F59" s="1">
-        <v>13605335837</v>
+        <v>18800101937</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B60" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>172</v>
+      <c r="B60" s="2" t="s">
+        <v>185</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="E60" s="1">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1">
-        <v>15101146651</v>
+        <v>15516026377</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="B61" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>175</v>
+      <c r="B61" s="2" t="s">
+        <v>186</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E61" s="1">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1">
-        <v>18610969429</v>
+        <v>18813046076</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A64" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D64" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E64" s="1">
-        <v>25</v>
-      </c>
-      <c r="F64" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A65" s="1">
-        <v>4</v>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F65" s="1">
+        <v>18618311177</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -2213,5 +2375,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>